--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-System-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75248593-5D26-47CF-B89D-E69402347B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838823F-B41D-4BB1-8A1F-746550AB10CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{420433BE-FBE1-400D-AF03-365006AC6038}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>H2</t>
   </si>
@@ -120,6 +120,42 @@
   </si>
   <si>
     <t>xb</t>
+  </si>
+  <si>
+    <t>R_min</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Actual #</t>
+  </si>
+  <si>
+    <t>Feed #</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --&gt;</t>
+  </si>
+  <si>
+    <t>Stages</t>
+  </si>
+  <si>
+    <t>Trayes</t>
+  </si>
+  <si>
+    <t>(top-down)</t>
+  </si>
+  <si>
+    <t>(bottom-up)</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>Ideal Configuration</t>
+  </si>
+  <si>
+    <t>Real</t>
   </si>
 </sst>
 </file>
@@ -143,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,16 +187,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6854F75-BB02-441D-8E8E-3A78B122D750}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +564,7 @@
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -518,7 +572,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>10</v>
       </c>
@@ -538,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -569,7 +623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -597,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -625,7 +679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -639,7 +693,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -664,7 +718,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>3</v>
       </c>
@@ -678,7 +732,15 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.14287755025517601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>18</v>
       </c>
@@ -697,8 +759,15 @@
       <c r="J12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>1.3*Q11</f>
+        <v>0.18574081533172881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -726,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -754,8 +823,12 @@
         <f t="shared" ref="J14:J15" si="4" xml:space="preserve"> F14/$E$19</f>
         <v>7.1217306916326467E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -783,8 +856,33 @@
         <f t="shared" si="4"/>
         <v>0.92878269308367356</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1"/>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16">
+        <v>17.438110000000002</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16">
+        <v>18</v>
+      </c>
+      <c r="T16">
+        <f xml:space="preserve"> S16-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -792,8 +890,33 @@
         <f xml:space="preserve"> SUM(D13:D15)</f>
         <v>80.866236542379312</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17">
+        <v>12.86632</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17">
+        <v>13</v>
+      </c>
+      <c r="T17">
+        <f xml:space="preserve"> S17</f>
+        <v>13</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>24</v>
       </c>
@@ -801,8 +924,14 @@
         <f xml:space="preserve"> SUM(E13:E15)</f>
         <v>75.614298523564869</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>25</v>
       </c>
@@ -810,10 +939,36 @@
         <f>SUM(F13:F15)</f>
         <v>5.2519380188144451</v>
       </c>
+      <c r="T19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <f xml:space="preserve"> T16/I18</f>
+        <v>70.833333333333343</v>
+      </c>
+      <c r="U20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <f xml:space="preserve"> T17/I18</f>
+        <v>54.166666666666671</v>
+      </c>
+      <c r="U21">
+        <v>55</v>
+      </c>
+      <c r="V21">
+        <f xml:space="preserve"> U20-U21</f>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="S14:T14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
